--- a/datamining/final_data/sorted1970_nltk.xlsx
+++ b/datamining/final_data/sorted1970_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IF2"/>
+  <dimension ref="A1:GN2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,557 +442,557 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>of</t>
+          <t>giftedness</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>giftedness</t>
+          <t>hither</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>come</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>hither</t>
+          <t>gifted</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>come</t>
+          <t>children</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>child</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>gifted</t>
+          <t>creative</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>prowess</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>is</t>
+          <t>athletic</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>superstudent</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>growing</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>creative</t>
+          <t>school</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>underachievement</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>superstudent</t>
+          <t>education</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>athletic</t>
+          <t>creativity</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>read</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>prowess</t>
+          <t>editorial</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>can</t>
+          <t>quibblings</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>underachievement</t>
+          <t>siblings</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>person</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>being</t>
+          <t>statistics</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>programmed</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>.1</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>creativity</t>
+          <t>talents</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>read</t>
+          <t>ever</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>quibblings</t>
+          <t>program</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>rates</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>siblings</t>
+          <t>offered</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>persistence</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>growing</t>
+          <t>courses</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>.1</t>
+          <t>writing</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>programmed</t>
+          <t>preferred</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>editorial</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>averageness</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>ever</t>
+          <t>different</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>statistics</t>
+          <t>laughter</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>future</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>persistence</t>
+          <t>problems</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>rates</t>
+          <t>girls</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>adults</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>problems</t>
+          <t>broadening</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>future</t>
+          <t>values</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>concepts</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>writing</t>
+          <t>virtues</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>girls</t>
+          <t>70s</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
           <t>vices</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>values</t>
-        </is>
-      </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>virtues</t>
+          <t>present</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
+          <t>best</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
           <t>problem</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>present</t>
-        </is>
-      </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>preferred</t>
+          <t>interested</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>averageness</t>
+          <t>science</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>offered</t>
+          <t>discover</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>laughter</t>
+          <t>must</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>70s</t>
+          <t>waste</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>different</t>
+          <t>designed</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>courses</t>
+          <t>specifically</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>one-half</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>what</t>
+          <t>case</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>concepts</t>
+          <t>write</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>talents</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>broadening</t>
+          <t>player</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>why</t>
+          <t>countries</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>adults</t>
+          <t>potential</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>role</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>when</t>
+          <t>dyadic</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>facilitator</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>underdeveloped</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>countries</t>
+          <t>interaction</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>dawning</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>underdeveloped</t>
+          <t>age</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>potential</t>
+          <t>aquarius</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>are</t>
+          <t>marriage</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>best</t>
+          <t>years</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>case</t>
+          <t>50</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>specifically</t>
+          <t>misled</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>designed</t>
+          <t>research</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>performance</t>
+          <t>self-concept</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>aquarius</t>
+          <t>workshop</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>interaction</t>
+          <t>development</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>dyadic</t>
+          <t>part</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>dawning</t>
+          <t>arts</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>facilitator</t>
+          <t>talented</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>football</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>marriage</t>
+          <t>player-reid</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>player</t>
+          <t>musically</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>must</t>
+          <t>parents</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>one-half</t>
+          <t>view</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>waste</t>
+          <t>point</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>view</t>
+          <t>small</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>town</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>parents</t>
+          <t>attitudes</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>point</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>town</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>football</t>
+          <t>reversed</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>talented</t>
+          <t>toward</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>player-reid</t>
+          <t>congressional</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>musically</t>
+          <t>additional</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>or</t>
+          <t>span</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>reversed</t>
+          <t>recommendations</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>perspective</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>attitudes</t>
+          <t>attention</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>long</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>toward</t>
+          <t>hearings</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>some</t>
+          <t>observations</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>span</t>
+          <t>given</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>perspective</t>
+          <t>as-</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>notes</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>training</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
@@ -1002,632 +1002,412 @@
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>attention</t>
+          <t>shares</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>notes</t>
+          <t>book</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>shares</t>
+          <t>review</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>as-</t>
+          <t>process</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>lincoln</t>
         </is>
       </c>
       <c r="DP1" s="1" t="inlineStr">
         <is>
+          <t>dissolution</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>creation</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>keep</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>barron</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>bored</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>ways</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>understanding</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>better</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>seminar</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
           <t>psychology-counseling</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>multi-media</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>seminar</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>during</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
-        <is>
-          <t>congressional</t>
-        </is>
-      </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>group</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
-        <is>
-          <t>additional</t>
-        </is>
-      </c>
-      <c r="DW1" s="1" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>approach</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
-        <is>
-          <t>given</t>
-        </is>
-      </c>
-      <c r="DZ1" s="1" t="inlineStr">
-        <is>
-          <t>workshop</t>
-        </is>
-      </c>
-      <c r="EA1" s="1" t="inlineStr">
-        <is>
-          <t>recommendations</t>
-        </is>
-      </c>
-      <c r="EB1" s="1" t="inlineStr">
-        <is>
-          <t>observations</t>
-        </is>
-      </c>
-      <c r="EC1" s="1" t="inlineStr">
-        <is>
-          <t>an</t>
-        </is>
-      </c>
-      <c r="ED1" s="1" t="inlineStr">
-        <is>
-          <t>development</t>
-        </is>
-      </c>
-      <c r="EE1" s="1" t="inlineStr">
-        <is>
-          <t>part</t>
-        </is>
-      </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>self-concept</t>
+          <t>sensory</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>arts</t>
+          <t>production</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>hearings</t>
+          <t>almost</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>barron</t>
+          <t>world</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>young</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>simultaneous</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>tells</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>archer</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>sensory</t>
+          <t>former</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>champion</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>almost</t>
+          <t>.3</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>ways</t>
+          <t>stimulation</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>understanding</t>
+          <t>educators</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>better</t>
+          <t>exceptional</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>bored</t>
+          <t>attached</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>from</t>
+          <t>dollar</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>interested</t>
+          <t>call</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>keep</t>
+          <t>name</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>lincoln</t>
+          <t>6th</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>science</t>
+          <t>handicapped</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>discover</t>
+          <t>description</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>do</t>
+          <t>sign</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>stimulation</t>
+          <t>grade</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>its</t>
+          <t>team</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>dissolution</t>
+          <t>teaching</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>death</t>
+          <t>summer</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>creation</t>
+          <t>students</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>young</t>
+          <t>commentary</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>adolescents</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>simultaneous</t>
+          <t>ar</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>brief</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>creatively</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>misled</t>
+          <t>device</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>team</t>
+          <t>identifying</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>by</t>
+          <t>kind</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>screening</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>our</t>
+          <t>marry</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>grade</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>research</t>
+          <t>beautiful</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>students</t>
+          <t>words</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>years</t>
+          <t>black</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>commentary</t>
+          <t>poetry</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>6th</t>
+          <t>care</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>summer</t>
+          <t>another</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>teaching</t>
+          <t>necessarily</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>archer</t>
+          <t>look</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
-          <t>did</t>
+          <t>performer</t>
         </is>
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
-          <t>screening</t>
+          <t>sometimes</t>
         </is>
       </c>
       <c r="GB1" s="1" t="inlineStr">
         <is>
-          <t>identifying</t>
+          <t>use</t>
         </is>
       </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
-          <t>device</t>
+          <t>right</t>
         </is>
       </c>
       <c r="GD1" s="1" t="inlineStr">
         <is>
-          <t>creatively</t>
+          <t>youngest</t>
         </is>
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>valuable</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>how</t>
+          <t>study</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>kind</t>
+          <t>strength</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>former</t>
+          <t>sources</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>champion</t>
+          <t>reveals</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>.3</t>
+          <t>national</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>brief</t>
+          <t>league</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>ar</t>
+          <t>bench</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>she</t>
+          <t>baseball</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>adolescents</t>
-        </is>
-      </c>
-      <c r="GO1" s="1" t="inlineStr">
-        <is>
-          <t>tells</t>
-        </is>
-      </c>
-      <c r="GP1" s="1" t="inlineStr">
-        <is>
-          <t>world</t>
-        </is>
-      </c>
-      <c r="GQ1" s="1" t="inlineStr">
-        <is>
-          <t>indeed</t>
-        </is>
-      </c>
-      <c r="GR1" s="1" t="inlineStr">
-        <is>
-          <t>black</t>
-        </is>
-      </c>
-      <c r="GS1" s="1" t="inlineStr">
-        <is>
-          <t>beautiful</t>
-        </is>
-      </c>
-      <c r="GT1" s="1" t="inlineStr">
-        <is>
-          <t>poetry</t>
-        </is>
-      </c>
-      <c r="GU1" s="1" t="inlineStr">
-        <is>
-          <t>marry</t>
-        </is>
-      </c>
-      <c r="GV1" s="1" t="inlineStr">
-        <is>
-          <t>words</t>
-        </is>
-      </c>
-      <c r="GW1" s="1" t="inlineStr">
-        <is>
-          <t>handicapped</t>
-        </is>
-      </c>
-      <c r="GX1" s="1" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="GY1" s="1" t="inlineStr">
-        <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="GZ1" s="1" t="inlineStr">
-        <is>
-          <t>exceptional</t>
-        </is>
-      </c>
-      <c r="HA1" s="1" t="inlineStr">
-        <is>
-          <t>call</t>
-        </is>
-      </c>
-      <c r="HB1" s="1" t="inlineStr">
-        <is>
-          <t>will</t>
-        </is>
-      </c>
-      <c r="HC1" s="1" t="inlineStr">
-        <is>
-          <t>them</t>
-        </is>
-      </c>
-      <c r="HD1" s="1" t="inlineStr">
-        <is>
-          <t>sign</t>
-        </is>
-      </c>
-      <c r="HE1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="HF1" s="1" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="HG1" s="1" t="inlineStr">
-        <is>
-          <t>dollar</t>
-        </is>
-      </c>
-      <c r="HH1" s="1" t="inlineStr">
-        <is>
-          <t>educators</t>
-        </is>
-      </c>
-      <c r="HI1" s="1" t="inlineStr">
-        <is>
-          <t>attached</t>
-        </is>
-      </c>
-      <c r="HJ1" s="1" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="HK1" s="1" t="inlineStr">
-        <is>
-          <t>look</t>
-        </is>
-      </c>
-      <c r="HL1" s="1" t="inlineStr">
-        <is>
-          <t>use</t>
-        </is>
-      </c>
-      <c r="HM1" s="1" t="inlineStr">
-        <is>
-          <t>their</t>
-        </is>
-      </c>
-      <c r="HN1" s="1" t="inlineStr">
-        <is>
-          <t>sometimes</t>
-        </is>
-      </c>
-      <c r="HO1" s="1" t="inlineStr">
-        <is>
-          <t>performer</t>
-        </is>
-      </c>
-      <c r="HP1" s="1" t="inlineStr">
-        <is>
-          <t>necessarily</t>
-        </is>
-      </c>
-      <c r="HQ1" s="1" t="inlineStr">
-        <is>
-          <t>care</t>
-        </is>
-      </c>
-      <c r="HR1" s="1" t="inlineStr">
-        <is>
-          <t>at</t>
-        </is>
-      </c>
-      <c r="HS1" s="1" t="inlineStr">
-        <is>
-          <t>another</t>
-        </is>
-      </c>
-      <c r="HT1" s="1" t="inlineStr">
-        <is>
-          <t>reveals</t>
-        </is>
-      </c>
-      <c r="HU1" s="1" t="inlineStr">
-        <is>
           <t>voted</t>
-        </is>
-      </c>
-      <c r="HV1" s="1" t="inlineStr">
-        <is>
-          <t>valuable</t>
-        </is>
-      </c>
-      <c r="HW1" s="1" t="inlineStr">
-        <is>
-          <t>study</t>
-        </is>
-      </c>
-      <c r="HX1" s="1" t="inlineStr">
-        <is>
-          <t>strength</t>
-        </is>
-      </c>
-      <c r="HY1" s="1" t="inlineStr">
-        <is>
-          <t>sources</t>
-        </is>
-      </c>
-      <c r="HZ1" s="1" t="inlineStr">
-        <is>
-          <t>baseball</t>
-        </is>
-      </c>
-      <c r="IA1" s="1" t="inlineStr">
-        <is>
-          <t>bench</t>
-        </is>
-      </c>
-      <c r="IB1" s="1" t="inlineStr">
-        <is>
-          <t>national</t>
-        </is>
-      </c>
-      <c r="IC1" s="1" t="inlineStr">
-        <is>
-          <t>most</t>
-        </is>
-      </c>
-      <c r="ID1" s="1" t="inlineStr">
-        <is>
-          <t>league</t>
-        </is>
-      </c>
-      <c r="IE1" s="1" t="inlineStr">
-        <is>
-          <t>j</t>
-        </is>
-      </c>
-      <c r="IF1" s="1" t="inlineStr">
-        <is>
-          <t>youngest</t>
         </is>
       </c>
     </row>
@@ -1639,142 +1419,142 @@
         <v>1970</v>
       </c>
       <c r="C2" t="n">
-        <v>2.17</v>
+        <v>2.06</v>
       </c>
       <c r="D2" t="n">
-        <v>1.94</v>
+        <v>1.77</v>
       </c>
       <c r="E2" t="n">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="F2" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="G2" t="n">
-        <v>1.74</v>
+        <v>1.4</v>
       </c>
       <c r="H2" t="n">
-        <v>1.61</v>
+        <v>1.13</v>
       </c>
       <c r="I2" t="n">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="J2" t="n">
-        <v>1.53</v>
+        <v>1.06</v>
       </c>
       <c r="K2" t="n">
-        <v>1.31</v>
+        <v>1.05</v>
       </c>
       <c r="L2" t="n">
-        <v>1.28</v>
+        <v>1.05</v>
       </c>
       <c r="M2" t="n">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>1.17</v>
+        <v>0.99</v>
       </c>
       <c r="O2" t="n">
-        <v>1.03</v>
+        <v>0.95</v>
       </c>
       <c r="P2" t="n">
-        <v>1.02</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>0.96</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>0.96</v>
+        <v>0.77</v>
       </c>
       <c r="T2" t="n">
-        <v>0.96</v>
+        <v>0.72</v>
       </c>
       <c r="U2" t="n">
-        <v>0.89</v>
+        <v>0.71</v>
       </c>
       <c r="V2" t="n">
-        <v>0.89</v>
+        <v>0.71</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8600000000000001</v>
+        <v>0.6900000000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>0.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.8500000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.72</v>
+        <v>0.65</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.71</v>
+        <v>0.6100000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.71</v>
+        <v>0.61</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.71</v>
+        <v>0.61</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.7</v>
+        <v>0.61</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.7</v>
+        <v>0.61</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.62</v>
+        <v>0.58</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.5800000000000001</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AW2" t="n">
         <v>0.5600000000000001</v>
@@ -1783,7 +1563,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="AZ2" t="n">
         <v>0.55</v>
@@ -1792,112 +1572,112 @@
         <v>0.55</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="BD2" t="n">
         <v>0.54</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="BS2" t="n">
         <v>0.5</v>
       </c>
       <c r="BT2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="BY2" t="n">
         <v>0.48</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="BZ2" t="n">
         <v>0.48</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="CA2" t="n">
         <v>0.48</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="CB2" t="n">
         <v>0.48</v>
       </c>
-      <c r="BX2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>0.46</v>
-      </c>
       <c r="CC2" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="CL2" t="n">
         <v>0.43</v>
@@ -1909,133 +1689,133 @@
         <v>0.43</v>
       </c>
       <c r="CO2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="CV2" t="n">
         <v>0.41</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="CW2" t="n">
         <v>0.41</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="CX2" t="n">
         <v>0.41</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="CY2" t="n">
         <v>0.41</v>
       </c>
-      <c r="CS2" t="n">
+      <c r="CZ2" t="n">
         <v>0.41</v>
       </c>
-      <c r="CT2" t="n">
+      <c r="DA2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="DH2" t="n">
         <v>0.4</v>
       </c>
-      <c r="CU2" t="n">
+      <c r="DI2" t="n">
         <v>0.4</v>
       </c>
-      <c r="CV2" t="n">
+      <c r="DJ2" t="n">
         <v>0.4</v>
       </c>
-      <c r="CW2" t="n">
+      <c r="DK2" t="n">
         <v>0.4</v>
       </c>
-      <c r="CX2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="CZ2" t="n">
+      <c r="DL2" t="n">
         <v>0.39</v>
       </c>
-      <c r="DA2" t="n">
+      <c r="DM2" t="n">
         <v>0.39</v>
       </c>
-      <c r="DB2" t="n">
+      <c r="DN2" t="n">
         <v>0.39</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="DO2" t="n">
         <v>0.39</v>
       </c>
-      <c r="DD2" t="n">
+      <c r="DP2" t="n">
         <v>0.39</v>
       </c>
-      <c r="DE2" t="n">
+      <c r="DQ2" t="n">
         <v>0.39</v>
       </c>
-      <c r="DF2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>0.37</v>
-      </c>
       <c r="DR2" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="EF2" t="n">
         <v>0.37</v>
@@ -2047,88 +1827,88 @@
         <v>0.37</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="FK2" t="n">
         <v>0.33</v>
@@ -2146,211 +1926,79 @@
         <v>0.33</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="GW2" t="n">
         <v>0.25</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>0.23</v>
       </c>
     </row>
   </sheetData>
